--- a/TabletopWargameProject/Документы/Таблицы.xlsx
+++ b/TabletopWargameProject/Документы/Таблицы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tabletop-Wargame-Project\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BoyVOL.github.io\TabletopWargameProject\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" refMode="R1C1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -236,6 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -243,13 +249,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -407,14 +407,14 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -1005,52 +1005,52 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
     <mergeCell ref="C44:E44"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
